--- a/GUIDatabaseSpreadSheet.xlsx
+++ b/GUIDatabaseSpreadSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Big Green\IdeaProjects\JPProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D2B628-3066-4E5A-9FC4-CB8F4B088727}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F8FDEA-3C7F-47A3-9A49-354FC51E48DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,14 +586,14 @@
   </sheetPr>
   <dimension ref="A1:L1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="158.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
